--- a/cases/NorthSea/Offshore_Parks/WindParkData.xlsx
+++ b/cases/NorthSea/Offshore_Parks/WindParkData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Offshore_Parks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00_Data\00_WindParksNorthSea\00_Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD54A6C-744E-4251-9134-BECC0CCDDC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42C0DF6-7E0B-4F92-9C2E-D7ED528E51F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DF8582E-FA34-4095-A95C-23ED881011C4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="100">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Orsted</t>
   </si>
   <si>
-    <t>Borssele Alpha</t>
-  </si>
-  <si>
     <t>https://www.noordzeeloket.nl/functies-gebruik/windenergie/doorvaart-medegebruik/borssele/, https://orsted.nl/onze-windparken/borssele-1-and-2</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>Blauwind</t>
   </si>
   <si>
-    <t>Borssele Beta</t>
-  </si>
-  <si>
     <t>https://www.noordzeeloket.nl/functies-gebruik/windenergie/doorvaart-medegebruik/borssele/, https://www.blauwwind.nl/over/over-blauwwind</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>Vattenfall</t>
   </si>
   <si>
-    <t>Hollands Kust Zuid Alpha</t>
-  </si>
-  <si>
     <t>https://vattenfall-hollandsekust.nl/windpark/</t>
   </si>
   <si>
@@ -189,9 +180,6 @@
     <t>HK Kavel III (Zuid)</t>
   </si>
   <si>
-    <t>Hollands Kust Zuid Beta</t>
-  </si>
-  <si>
     <t>HK Kavel IV (Zuid)</t>
   </si>
   <si>
@@ -213,9 +201,6 @@
     <t>Ecowende</t>
   </si>
   <si>
-    <t>Hollands Kust West Alpha</t>
-  </si>
-  <si>
     <t>https://www.rijksoverheid.nl/actueel/nieuws/2022/12/15/shell-en-eneco-winnen-tender-windpark-op-zee-hollandse-kust-west</t>
   </si>
   <si>
@@ -225,9 +210,6 @@
     <t>Oranje Wind Power II</t>
   </si>
   <si>
-    <t>Hollands Kust West Beta</t>
-  </si>
-  <si>
     <t>https://english.rvo.nl/news/oranje-wind-power-ii-gets-permit-700-mw-hollandse-kust-west-offshore-wind-farm</t>
   </si>
   <si>
@@ -312,13 +294,49 @@
     <t>Capacity</t>
   </si>
   <si>
-    <t>Ijmuiden Ver Beta</t>
-  </si>
-  <si>
-    <t>Ijmuiden Ver Alpha</t>
-  </si>
-  <si>
-    <t>Ijmuiden Ver Gamma</t>
+    <t>ofNL_BO_A</t>
+  </si>
+  <si>
+    <t>ofNL_BO_B</t>
+  </si>
+  <si>
+    <t>ofNL_GE_A</t>
+  </si>
+  <si>
+    <t>ofNL_EG</t>
+  </si>
+  <si>
+    <t>ofNL_KZ_A</t>
+  </si>
+  <si>
+    <t>ofNL_KZ_B</t>
+  </si>
+  <si>
+    <t>ofNL_KN</t>
+  </si>
+  <si>
+    <t>ofNL_KW_A</t>
+  </si>
+  <si>
+    <t>ofNL_KW_B</t>
+  </si>
+  <si>
+    <t>ofNL_LU</t>
+  </si>
+  <si>
+    <t>ofNL_PA</t>
+  </si>
+  <si>
+    <t>ofNL_GE_B</t>
+  </si>
+  <si>
+    <t>ofNL_IJ_A</t>
+  </si>
+  <si>
+    <t>ofNL_IJ_B</t>
+  </si>
+  <si>
+    <t>ofNL_IJ_G</t>
   </si>
 </sst>
 </file>
@@ -363,10 +381,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -685,12 +706,13 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="16" width="0" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -797,10 +819,10 @@
         <v>22</v>
       </c>
       <c r="Q2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" t="s">
         <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -811,7 +833,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>47</v>
@@ -850,10 +872,10 @@
         <v>22</v>
       </c>
       <c r="Q3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" t="s">
         <v>23</v>
-      </c>
-      <c r="R3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -864,7 +886,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>37</v>
@@ -891,7 +913,7 @@
         <v>9.2874710000000003E-3</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4">
         <v>9.5</v>
@@ -900,13 +922,13 @@
         <v>109</v>
       </c>
       <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" t="s">
         <v>28</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -917,7 +939,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -944,7 +966,7 @@
         <v>9.711931E-3</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>9.5</v>
@@ -953,13 +975,13 @@
         <v>109</v>
       </c>
       <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -970,7 +992,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1000,10 +1022,10 @@
         <v>9.5</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="R6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1014,7 +1036,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>75</v>
@@ -1041,7 +1063,7 @@
         <v>4.6984490000000004E-3</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>4</v>
@@ -1050,10 +1072,10 @@
         <v>88.5</v>
       </c>
       <c r="Q7" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="R7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1064,7 +1086,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>36</v>
@@ -1091,7 +1113,7 @@
         <v>3.5478200000000001E-3</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -1100,13 +1122,13 @@
         <v>70</v>
       </c>
       <c r="P8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" t="s">
         <v>39</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1117,7 +1139,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>70</v>
@@ -1126,7 +1148,7 @@
         <v>700</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>2023</v>
@@ -1144,7 +1166,7 @@
         <v>8.8773610000000003E-3</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>11</v>
@@ -1153,13 +1175,13 @@
         <v>125.8</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q9" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="R9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1170,7 +1192,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>70</v>
@@ -1179,7 +1201,7 @@
         <v>700</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G10">
         <v>2023</v>
@@ -1197,7 +1219,7 @@
         <v>6.2933110000000002E-3</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>11</v>
@@ -1206,13 +1228,13 @@
         <v>125.8</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="R10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1223,7 +1245,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>70</v>
@@ -1232,7 +1254,7 @@
         <v>700</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G11">
         <v>2023</v>
@@ -1250,7 +1272,7 @@
         <v>7.0765009999999998E-3</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>11</v>
@@ -1259,13 +1281,13 @@
         <v>125.8</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q11" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="R11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1276,7 +1298,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>70</v>
@@ -1285,7 +1307,7 @@
         <v>700</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G12">
         <v>2023</v>
@@ -1303,7 +1325,7 @@
         <v>1.1890362E-2</v>
       </c>
       <c r="M12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>11</v>
@@ -1312,13 +1334,13 @@
         <v>125.8</v>
       </c>
       <c r="P12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q12" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="R12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1329,7 +1351,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>69</v>
@@ -1338,7 +1360,7 @@
         <v>759</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G13">
         <v>2023</v>
@@ -1356,7 +1378,7 @@
         <v>1.6808667999999999E-2</v>
       </c>
       <c r="M13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>11</v>
@@ -1365,13 +1387,13 @@
         <v>125.5</v>
       </c>
       <c r="P13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q13" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="R13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1379,7 +1401,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <v>54</v>
@@ -1388,7 +1410,7 @@
         <v>756</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G14">
         <v>2026</v>
@@ -1397,13 +1419,13 @@
         <v>14</v>
       </c>
       <c r="P14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q14" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1411,25 +1433,25 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>700</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G15">
         <v>2026</v>
       </c>
       <c r="P15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q15" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1440,13 +1462,13 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>700</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G16">
         <v>2031</v>
@@ -1463,8 +1485,11 @@
       <c r="L16">
         <v>2.8639056E-2</v>
       </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
       <c r="R16" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1472,22 +1497,22 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>1000</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G17">
         <v>2029</v>
       </c>
-      <c r="Q17" t="s">
-        <v>91</v>
+      <c r="Q17" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1495,22 +1520,22 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E18">
         <v>1000</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G18">
         <v>2029</v>
       </c>
-      <c r="Q18" t="s">
-        <v>91</v>
+      <c r="Q18" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1518,22 +1543,22 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E19">
         <v>1000</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G19">
         <v>2028</v>
       </c>
-      <c r="Q19" t="s">
-        <v>92</v>
+      <c r="Q19" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1541,22 +1566,22 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>1000</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G20">
         <v>2028</v>
       </c>
-      <c r="Q20" t="s">
-        <v>92</v>
+      <c r="Q20" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1564,19 +1589,22 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>2000</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G21">
         <v>2031</v>
       </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
       <c r="R21" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -1584,19 +1612,22 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E22">
         <v>2000</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G22">
         <v>2031</v>
       </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
       <c r="R22" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -1604,22 +1635,22 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <v>1000</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G23">
         <v>2029</v>
       </c>
-      <c r="Q23" t="s">
-        <v>93</v>
+      <c r="Q23" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -1630,13 +1661,13 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E24">
         <v>1000</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G24">
         <v>2029</v>
@@ -1653,11 +1684,11 @@
       <c r="L24">
         <v>0.15644340900000001</v>
       </c>
-      <c r="Q24" t="s">
-        <v>93</v>
+      <c r="Q24" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -1668,7 +1699,7 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D25">
         <v>43</v>
@@ -1695,7 +1726,7 @@
         <v>2.0999429999999999E-3</v>
       </c>
       <c r="M25" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N25">
         <v>3</v>
@@ -1704,13 +1735,13 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Q25" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="R25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -1721,7 +1752,7 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D26">
         <v>60</v>
@@ -1748,7 +1779,7 @@
         <v>2.2176460000000002E-3</v>
       </c>
       <c r="M26" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -1757,13 +1788,13 @@
         <v>60</v>
       </c>
       <c r="P26" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Q26" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="R26" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -1774,13 +1805,13 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E27">
         <v>700</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G27">
         <v>2031</v>
@@ -1797,8 +1828,11 @@
       <c r="L27">
         <v>2.9756637999999998E-2</v>
       </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
       <c r="R27" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -1809,7 +1843,7 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>75</v>
@@ -1836,7 +1870,7 @@
         <v>4.5745229999999996E-3</v>
       </c>
       <c r="M28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>4</v>
@@ -1845,10 +1879,10 @@
         <v>88.5</v>
       </c>
       <c r="Q28" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="R28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1874,30 +1908,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
         <v>84</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>103</v>
@@ -1905,13 +1939,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>95</v>
@@ -1919,35 +1953,35 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
